--- a/biology/Botanique/Anisodontea/Anisodontea.xlsx
+++ b/biology/Botanique/Anisodontea/Anisodontea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anisodontea est un genre comprenant 22 espèces d'arbustes et d'arbrisseaux indigènes de l'Afrique du Sud, appartenant à la famille des malvacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anisodonteas sont à feuillage persistant, la plupart des feuilles dentées peuvent être lobées, palmées  ou elliptiques. Les fleurs sont à 5 pétales. Elles prospèrent dans les climats tempérés froids.
 </t>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom vient du grec ἄνισος, anisos qui signifie « inégal » et de ὀδούς odous, génitif ὀδόντος, odontos qui signifie « dents » faisant allusion à ses feuilles à lobes inégaux.
 </t>
@@ -573,7 +589,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour plusieurs espèces, les graines doivent être semées au printemps.
 </t>
@@ -604,7 +622,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Anisodontea comprend 22 espèces :
 </t>
